--- a/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>80046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66448</v>
+        <v>65744</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96420</v>
+        <v>96691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.138360923403067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1148573929055141</v>
+        <v>0.1136399253689285</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1666633888545276</v>
+        <v>0.1671330585016564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -762,19 +762,19 @@
         <v>183670</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165632</v>
+        <v>164246</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>202593</v>
+        <v>201205</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2236289111049402</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2016667078162282</v>
+        <v>0.1999794667169285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2466686245697813</v>
+        <v>0.2449792820179074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>404</v>
@@ -783,19 +783,19 @@
         <v>263716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241589</v>
+        <v>240432</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>292832</v>
+        <v>289759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1883892561748813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1725828624275269</v>
+        <v>0.1717563740368448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.209189067598582</v>
+        <v>0.2069937209103879</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>57784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46919</v>
+        <v>46276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73548</v>
+        <v>70901</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09988103648698829</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08110120431974194</v>
+        <v>0.07998954569561599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1271291168370489</v>
+        <v>0.122553314885048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>235</v>
@@ -833,19 +833,19 @@
         <v>125547</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111258</v>
+        <v>110962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>141763</v>
+        <v>143569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1528607656710054</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1354634919052633</v>
+        <v>0.1351023159842549</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1726048618153953</v>
+        <v>0.1748042033071548</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>311</v>
@@ -854,19 +854,19 @@
         <v>183331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161876</v>
+        <v>163096</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>203504</v>
+        <v>203552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1309652404563096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1156387645585042</v>
+        <v>0.1165099742443777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.145375859516544</v>
+        <v>0.1454106627119919</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>100540</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>85558</v>
+        <v>84589</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119208</v>
+        <v>118355</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1737853364374111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1478880641700792</v>
+        <v>0.1462146617025141</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2060529231506979</v>
+        <v>0.2045799249968439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>392</v>
@@ -904,19 +904,19 @@
         <v>210879</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191857</v>
+        <v>191880</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>230466</v>
+        <v>228173</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2567573664689761</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2335971577885838</v>
+        <v>0.2336254902524287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2806059121741508</v>
+        <v>0.2778148224623538</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>521</v>
@@ -925,19 +925,19 @@
         <v>311419</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>286979</v>
+        <v>285787</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>337806</v>
+        <v>336273</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2224665876437288</v>
+        <v>0.2224665876437289</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2050080042042109</v>
+        <v>0.2041561971941632</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2413166596451532</v>
+        <v>0.2402215062659481</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>340159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>317038</v>
+        <v>317374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>362009</v>
+        <v>362887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5879727036725336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5480078362595459</v>
+        <v>0.5485870791617833</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6257400039992497</v>
+        <v>0.627258797261823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>497</v>
@@ -975,19 +975,19 @@
         <v>301220</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279465</v>
+        <v>279935</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>323358</v>
+        <v>323013</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3667529567550783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3402650675436712</v>
+        <v>0.3408380007851724</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3937081202731708</v>
+        <v>0.3932880919848232</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>881</v>
@@ -996,19 +996,19 @@
         <v>641379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>609679</v>
+        <v>611177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>675485</v>
+        <v>676113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4581789157250802</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4355329925945638</v>
+        <v>0.4366034377371701</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4825424534658643</v>
+        <v>0.4829909859284712</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>128162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107472</v>
+        <v>107897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>154067</v>
+        <v>153477</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05748487892809999</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04820494697015511</v>
+        <v>0.04839559707513449</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06910418472623112</v>
+        <v>0.06883957464075498</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>259</v>
@@ -1121,19 +1121,19 @@
         <v>184985</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>162294</v>
+        <v>162628</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>208973</v>
+        <v>210908</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08521429974982341</v>
+        <v>0.08521429974982339</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07476131038489313</v>
+        <v>0.0749152061724995</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09626435647029279</v>
+        <v>0.09715591491670934</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>395</v>
@@ -1142,19 +1142,19 @@
         <v>313147</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>280712</v>
+        <v>281808</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>347597</v>
+        <v>348253</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.07116475724422236</v>
+        <v>0.07116475724422237</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06379382641723846</v>
+        <v>0.06404278686433203</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07899369399361032</v>
+        <v>0.07914279866215594</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>110425</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90885</v>
+        <v>91856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133675</v>
+        <v>135479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04952922576182162</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04076492082545446</v>
+        <v>0.04120039950301266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05995767978685453</v>
+        <v>0.06076715840238456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>298</v>
@@ -1192,19 +1192,19 @@
         <v>197792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>175138</v>
+        <v>176826</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223718</v>
+        <v>222219</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09111385876034903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08067831307084063</v>
+        <v>0.08145566665407118</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1030569063852459</v>
+        <v>0.1023660784952561</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -1213,19 +1213,19 @@
         <v>308217</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275690</v>
+        <v>279658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>342251</v>
+        <v>340400</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07004435743001727</v>
+        <v>0.0700443574300173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0626523647333978</v>
+        <v>0.06355417068450257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07777897346768155</v>
+        <v>0.07735811739643388</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>442667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>404502</v>
+        <v>405419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>483686</v>
+        <v>485439</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1985514487866888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1814328647877515</v>
+        <v>0.1818442086529655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2169495694994583</v>
+        <v>0.2177360793010595</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>800</v>
@@ -1263,19 +1263,19 @@
         <v>513178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>479829</v>
+        <v>477593</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548024</v>
+        <v>548817</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2363977339596033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2210352737150963</v>
+        <v>0.2200053469697689</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.252449812806487</v>
+        <v>0.2528149275374126</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1264</v>
@@ -1284,19 +1284,19 @@
         <v>955845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>900836</v>
+        <v>902763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1011466</v>
+        <v>1005993</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2172223247206406</v>
+        <v>0.2172223247206407</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2047210495689615</v>
+        <v>0.2051590929521221</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2298624394014207</v>
+        <v>0.2286187555121612</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>1548231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1494595</v>
+        <v>1498047</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1593508</v>
+        <v>1590891</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6944344465233896</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.670376594707137</v>
+        <v>0.6719253330448999</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7147424579307579</v>
+        <v>0.7135686127645083</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1563</v>
@@ -1334,19 +1334,19 @@
         <v>1274869</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1233707</v>
+        <v>1234293</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1315123</v>
+        <v>1318822</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5872741075302242</v>
+        <v>0.5872741075302241</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5683125617877053</v>
+        <v>0.5685828818829362</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6058174071253132</v>
+        <v>0.6075212776370662</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2839</v>
@@ -1355,19 +1355,19 @@
         <v>2823099</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2756614</v>
+        <v>2759099</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2884825</v>
+        <v>2883242</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6415685606051197</v>
+        <v>0.6415685606051198</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6264593550723073</v>
+        <v>0.6270240194646322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6555960581400204</v>
+        <v>0.6552364864179817</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>27072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18636</v>
+        <v>18097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39577</v>
+        <v>39436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03804476388422065</v>
+        <v>0.03804476388422064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02618876310153205</v>
+        <v>0.02543237487084546</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05561755334529496</v>
+        <v>0.0554196508142604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1480,19 +1480,19 @@
         <v>42790</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32077</v>
+        <v>33147</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54783</v>
+        <v>55450</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05822710188355448</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04364939671723828</v>
+        <v>0.04510528844906464</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07454654126153953</v>
+        <v>0.07545478681758225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>86</v>
@@ -1501,19 +1501,19 @@
         <v>69862</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55422</v>
+        <v>55450</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86455</v>
+        <v>85037</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04829841587419823</v>
+        <v>0.04829841587419822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03831559533959398</v>
+        <v>0.0383348310912428</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05976961657931366</v>
+        <v>0.05878991113415331</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>45859</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>32772</v>
+        <v>33270</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>62088</v>
+        <v>62148</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06444568466279589</v>
+        <v>0.06444568466279588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04605449590961776</v>
+        <v>0.04675476314446472</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08725354198426294</v>
+        <v>0.08733760265954153</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>85</v>
@@ -1551,19 +1551,19 @@
         <v>58540</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47360</v>
+        <v>45841</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>73265</v>
+        <v>72114</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07965982801696589</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0644459466615729</v>
+        <v>0.06237952966117177</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09969654881566692</v>
+        <v>0.09813068815896192</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>128</v>
@@ -1572,19 +1572,19 @@
         <v>104399</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>87506</v>
+        <v>85847</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>126425</v>
+        <v>125712</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07217524162911161</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06049655624709783</v>
+        <v>0.05934924763504869</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08740298600060892</v>
+        <v>0.08691000635363906</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>145464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126259</v>
+        <v>123889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172418</v>
+        <v>165977</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2044226207600493</v>
+        <v>0.2044226207600492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1774333313575381</v>
+        <v>0.1741018387827154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2423001621886716</v>
+        <v>0.2332491271912602</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>263</v>
@@ -1622,19 +1622,19 @@
         <v>167821</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149029</v>
+        <v>148950</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188888</v>
+        <v>188709</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2283667591173044</v>
+        <v>0.2283667591173045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2027941885312367</v>
+        <v>0.202687578919528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.257033093846017</v>
+        <v>0.256790469672466</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>426</v>
@@ -1643,19 +1643,19 @@
         <v>313286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>285658</v>
+        <v>285023</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>345714</v>
+        <v>343660</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2165874582493071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.197487381342421</v>
+        <v>0.1970478967656901</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2390065209477337</v>
+        <v>0.2375861127841503</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>493192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>466072</v>
+        <v>465295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>517155</v>
+        <v>516386</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6930869306929343</v>
+        <v>0.6930869306929341</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.65497538549297</v>
+        <v>0.6538841179786886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7267630540038835</v>
+        <v>0.7256826720705641</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>596</v>
@@ -1693,19 +1693,19 @@
         <v>465726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>442633</v>
+        <v>442724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>489028</v>
+        <v>489159</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.633746310982175</v>
+        <v>0.6337463109821749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6023219663287249</v>
+        <v>0.6024457597173037</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6654556219230632</v>
+        <v>0.6656339351878238</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1045</v>
@@ -1714,19 +1714,19 @@
         <v>958917</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>918192</v>
+        <v>920908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>989308</v>
+        <v>994640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6629388842473831</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6347838541610317</v>
+        <v>0.6366616161458281</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6839492555192961</v>
+        <v>0.6876357602675248</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>235280</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>208943</v>
+        <v>204741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>267519</v>
+        <v>264268</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06684839399628603</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05936562060483312</v>
+        <v>0.05817168912739124</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07600820636505695</v>
+        <v>0.07508467856542179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>621</v>
@@ -1839,19 +1839,19 @@
         <v>411445</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>378157</v>
+        <v>379393</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>449208</v>
+        <v>443372</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1103952323976206</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1014636580669434</v>
+        <v>0.1017952717599528</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1205274637215694</v>
+        <v>0.1189615679564426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>885</v>
@@ -1860,19 +1860,19 @@
         <v>646724</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>603154</v>
+        <v>604704</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>693831</v>
+        <v>690578</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08924501884784163</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08323249339343308</v>
+        <v>0.08344640820371842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09574546784688777</v>
+        <v>0.09529655982248625</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>214067</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188871</v>
+        <v>188671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>245547</v>
+        <v>247245</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06082151790536314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05366253836955355</v>
+        <v>0.0536058023916816</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06976567917552609</v>
+        <v>0.07024795326322793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>618</v>
@@ -1910,19 +1910,19 @@
         <v>381879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>352632</v>
+        <v>354119</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>415278</v>
+        <v>417393</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1024624451991974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09461514639365881</v>
+        <v>0.09501400117301052</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1114237531801057</v>
+        <v>0.1119912199587872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>852</v>
@@ -1931,19 +1931,19 @@
         <v>595947</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>556447</v>
+        <v>553632</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>640389</v>
+        <v>638703</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08223791140965772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07678718592441752</v>
+        <v>0.07639869388940848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08837080370372007</v>
+        <v>0.08813813691513181</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>688672</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>644023</v>
+        <v>638386</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>739067</v>
+        <v>736080</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1956675779525875</v>
+        <v>0.1956675779525874</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1829818489610392</v>
+        <v>0.1813802386895855</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2099860733416664</v>
+        <v>0.2091373117432377</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1455</v>
@@ -1981,19 +1981,19 @@
         <v>891878</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>845178</v>
+        <v>846891</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>935690</v>
+        <v>938912</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2393008322018152</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2267706401655183</v>
+        <v>0.2272304214161149</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2510560260167495</v>
+        <v>0.2519206375169736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2211</v>
@@ -2002,19 +2002,19 @@
         <v>1580550</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1518534</v>
+        <v>1511625</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1645797</v>
+        <v>1650377</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2181086474388753</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2095507893260173</v>
+        <v>0.2085973812412275</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2271125183660821</v>
+        <v>0.2277445401502191</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>2381582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2318912</v>
+        <v>2324910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2434778</v>
+        <v>2443961</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6766625101457633</v>
+        <v>0.6766625101457634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6588566337239001</v>
+        <v>0.6605605460516722</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6917767008106347</v>
+        <v>0.6943857430636937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2656</v>
@@ -2052,19 +2052,19 @@
         <v>2041814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1979620</v>
+        <v>1984593</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2092116</v>
+        <v>2091860</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5478414902013667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5311542747890331</v>
+        <v>0.5324885884421834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5613382125199645</v>
+        <v>0.561269314777088</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4765</v>
@@ -2073,19 +2073,19 @@
         <v>4423396</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4345193</v>
+        <v>4339010</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4508706</v>
+        <v>4500658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6104084223036254</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5996167046395356</v>
+        <v>0.5987635048080453</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6221808149533611</v>
+        <v>0.6210701870009828</v>
       </c>
     </row>
     <row r="23">
